--- a/datalists/npr1_40_list.xlsx
+++ b/datalists/npr1_40_list.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>/data2/shared/data/Results/recording28.6g100-500/recording28.6g_X1_skeletons.hdf5</t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>/data2/shared/data/Results/recording31.2g100-500/recording31.2g_X1_skeletons.hdf5</t>
+  </si>
+  <si>
+    <t>/data2/shared/data/Results/recording32.6g100-200/recording32.6g_X1_skeletons.hdf5</t>
   </si>
   <si>
     <t>/data2/shared/data/Results/recording33.6g100-200/recording33.6g_X1_skeletons.hdf5</t>
@@ -143,7 +146,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>9000.0</v>
+        <v>3100.0</v>
       </c>
     </row>
     <row r="6">
@@ -151,7 +154,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>6000.0</v>
+        <v>9000.0</v>
       </c>
     </row>
     <row r="7">
@@ -159,7 +162,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>3000.0</v>
+        <v>6000.0</v>
       </c>
     </row>
     <row r="8">
@@ -167,7 +170,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>14000.0</v>
+        <v>3000.0</v>
       </c>
     </row>
     <row r="9">
@@ -175,7 +178,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>7500.0</v>
+        <v>14000.0</v>
       </c>
     </row>
     <row r="10">
@@ -183,7 +186,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>13500.0</v>
+        <v>7500.0</v>
       </c>
     </row>
     <row r="11">
@@ -191,6 +194,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
+        <v>13500.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
         <v>7700.0</v>
       </c>
     </row>

--- a/datalists/npr1_40_list.xlsx
+++ b/datalists/npr1_40_list.xlsx
@@ -114,7 +114,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
+        <v>1400.0</v>
+      </c>
+      <c r="C1" s="1">
         <v>3000.0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>4000.0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="2">
@@ -122,7 +131,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
+        <v>1600.0</v>
+      </c>
+      <c r="C2" s="1">
         <v>3500.0</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4200.0</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="3">
@@ -130,7 +148,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
+        <v>2300.0</v>
+      </c>
+      <c r="C3" s="1">
         <v>7000.0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5000.0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="4">
@@ -138,7 +165,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
+        <v>2000.0</v>
+      </c>
+      <c r="C4" s="1">
         <v>3500.0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4000.0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="5">
@@ -146,7 +182,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
+        <v>1800.0</v>
+      </c>
+      <c r="C5" s="1">
         <v>3100.0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5500.0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="6">
@@ -154,7 +199,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>9000.0</v>
+        <v>5500.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>10000.0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="7">
@@ -162,7 +216,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
+        <v>4000.0</v>
+      </c>
+      <c r="C7" s="1">
         <v>6000.0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>6500.0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="8">
@@ -170,7 +233,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
+        <v>1700.0</v>
+      </c>
+      <c r="C8" s="1">
         <v>3000.0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3300.0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>10000.0</v>
       </c>
     </row>
     <row r="9">
@@ -178,7 +250,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
+        <v>7000.0</v>
+      </c>
+      <c r="C9" s="1">
         <v>14000.0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>17000.0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="10">
@@ -186,7 +267,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
+        <v>6000.0</v>
+      </c>
+      <c r="C10" s="1">
         <v>7500.0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>13000.0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="11">
@@ -194,7 +284,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
+        <v>8900.0</v>
+      </c>
+      <c r="C11" s="1">
         <v>13500.0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>13500.0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>32400.0</v>
       </c>
     </row>
     <row r="12">
@@ -202,7 +301,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
+        <v>3500.0</v>
+      </c>
+      <c r="C12" s="1">
         <v>7700.0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9500.0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>32400.0</v>
       </c>
     </row>
   </sheetData>
